--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43219,6 +43219,43 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43256,6 +43256,41 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>23000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,43 @@
         <v>23000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43328,6 +43328,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43365,6 +43365,43 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43402,6 +43402,41 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43437,6 +43437,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>30800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43472,6 +43472,41 @@
         <v>30800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>38000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43507,6 +43507,41 @@
         <v>38000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>84000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43542,6 +43542,41 @@
         <v>84000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>155900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43577,6 +43577,41 @@
         <v>155900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43612,6 +43612,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43647,6 +43647,76 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>50300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43717,6 +43717,76 @@
         <v>50300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>80100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43787,6 +43787,41 @@
         <v>80100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43822,6 +43822,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43857,6 +43857,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43892,6 +43892,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43927,6 +43927,76 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>80200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43997,6 +43997,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>69000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44032,6 +44032,41 @@
         <v>69000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>142400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2461"/>
+  <dimension ref="A1:I2462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86767,6 +86767,41 @@
         <v>142400</v>
       </c>
     </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2462" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G2462" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H2462" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2462" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2462"/>
+  <dimension ref="A1:I2463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86802,6 +86802,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2463" t="n">
+        <v>96000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2463"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86837,6 +86837,41 @@
         <v>96000</v>
       </c>
     </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2464" t="n">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2464"/>
+  <dimension ref="A1:I2465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86872,6 +86872,41 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2465" t="n">
+        <v>87800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86907,6 +86907,41 @@
         <v>87800</v>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2466" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2466"/>
+  <dimension ref="A1:I2467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86942,6 +86942,41 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2467" t="n">
+        <v>45100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2467"/>
+  <dimension ref="A1:I2468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86977,6 +86977,43 @@
         <v>45100</v>
       </c>
     </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2468" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2468"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87014,6 +87014,41 @@
         </is>
       </c>
     </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2469" t="n">
+        <v>125000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87049,6 +87049,43 @@
         <v>125000</v>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2470" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87086,6 +87086,41 @@
         </is>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>30800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2471"/>
+  <dimension ref="A1:I2472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87121,6 +87121,41 @@
         <v>30800</v>
       </c>
     </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>69000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2472"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87156,6 +87156,41 @@
         <v>69000</v>
       </c>
     </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>28000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2473"/>
+  <dimension ref="A1:I2474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87191,6 +87191,41 @@
         <v>28000</v>
       </c>
     </row>
+    <row r="2474">
+      <c r="A2474" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2474" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2474" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2474" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2474" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2474" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2474" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2474" t="n">
+        <v>91800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2474"/>
+  <dimension ref="A1:I2475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87226,6 +87226,41 @@
         <v>91800</v>
       </c>
     </row>
+    <row r="2475">
+      <c r="A2475" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2475" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2475" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2475" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2475" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2475" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2475" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2475" t="n">
+        <v>54400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6912.xlsx
+++ b/data/6912.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2475"/>
+  <dimension ref="A1:I2476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87261,6 +87261,41 @@
         <v>54400</v>
       </c>
     </row>
+    <row r="2476">
+      <c r="A2476" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2476" t="inlineStr">
+        <is>
+          <t>6912</t>
+        </is>
+      </c>
+      <c r="D2476" t="inlineStr">
+        <is>
+          <t>PASDEC</t>
+        </is>
+      </c>
+      <c r="E2476" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2476" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2476" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2476" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2476" t="n">
+        <v>52600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
